--- a/Data_frame/balancos_definitivos/BRBI11.xlsx
+++ b/Data_frame/balancos_definitivos/BRBI11.xlsx
@@ -549,16 +549,16 @@
         <v>7871054.848</v>
       </c>
       <c r="K2" t="n">
-        <v>827560</v>
+        <v>8606911.488</v>
       </c>
       <c r="L2" t="n">
-        <v>866518.0159999999</v>
+        <v>9695297.536</v>
       </c>
       <c r="M2" t="n">
-        <v>912816</v>
+        <v>9425941.504000001</v>
       </c>
       <c r="N2" t="n">
-        <v>845630.976</v>
+        <v>10745706.496</v>
       </c>
       <c r="O2" t="n">
         <v>11183051.776</v>
@@ -601,16 +601,16 @@
         <v>7784828.928</v>
       </c>
       <c r="K3" t="n">
-        <v>103351</v>
+        <v>8533017.088</v>
       </c>
       <c r="L3" t="n">
-        <v>100312</v>
+        <v>9619281.92</v>
       </c>
       <c r="M3" t="n">
-        <v>104078</v>
+        <v>9344338.944</v>
       </c>
       <c r="N3" t="n">
-        <v>115029</v>
+        <v>10657928.192</v>
       </c>
       <c r="O3" t="n">
         <v>11099755.52</v>
@@ -653,16 +653,16 @@
         <v>77470</v>
       </c>
       <c r="K4" t="n">
-        <v>2</v>
+        <v>143548</v>
       </c>
       <c r="L4" t="n">
-        <v>2</v>
+        <v>246919.008</v>
       </c>
       <c r="M4" t="n">
-        <v>1710</v>
+        <v>207664.992</v>
       </c>
       <c r="N4" t="n">
-        <v>2</v>
+        <v>287188</v>
       </c>
       <c r="O4" t="n">
         <v>227375.008</v>
@@ -705,16 +705,16 @@
         <v>7685215.232</v>
       </c>
       <c r="K5" t="n">
-        <v>100384</v>
+        <v>8366720</v>
       </c>
       <c r="L5" t="n">
-        <v>99676</v>
+        <v>9337278.464</v>
       </c>
       <c r="M5" t="n">
-        <v>102368</v>
+        <v>9096536.063999999</v>
       </c>
       <c r="N5" t="n">
-        <v>101929</v>
+        <v>10343438.336</v>
       </c>
       <c r="O5" t="n">
         <v>10832328.704</v>
@@ -913,16 +913,16 @@
         <v>13821</v>
       </c>
       <c r="K9" t="n">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>40138</v>
       </c>
       <c r="N9" t="n">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -1017,16 +1017,16 @@
         <v>5012</v>
       </c>
       <c r="K11" t="n">
-        <v>2837</v>
+        <v>22749</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>35085</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>12970</v>
+        <v>27302</v>
       </c>
       <c r="O11" t="n">
         <v>40052</v>
@@ -1069,16 +1069,16 @@
         <v>24957</v>
       </c>
       <c r="K12" t="n">
-        <v>724209.024</v>
+        <v>12280</v>
       </c>
       <c r="L12" t="n">
-        <v>766206.0159999999</v>
+        <v>13142</v>
       </c>
       <c r="M12" t="n">
-        <v>808737.9840000001</v>
+        <v>18875</v>
       </c>
       <c r="N12" t="n">
-        <v>730601.9840000001</v>
+        <v>25229</v>
       </c>
       <c r="O12" t="n">
         <v>22236</v>
@@ -1121,16 +1121,16 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>3060</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>3060</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>3422</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>3060</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1173,16 +1173,16 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>721148.992</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>763145.9840000001</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>805315.968</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>727542.0159999999</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1433,16 +1433,16 @@
         <v>24957</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>12280</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>13142</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>18875</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>25229</v>
       </c>
       <c r="O19" t="n">
         <v>22236</v>
@@ -1641,16 +1641,16 @@
         <v>46596</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>45865</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>46259</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>45158</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>44063</v>
       </c>
       <c r="O23" t="n">
         <v>43060</v>
@@ -1693,16 +1693,16 @@
         <v>14673</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>15749</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>16615</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>17569</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>18487</v>
       </c>
       <c r="O24" t="n">
         <v>18000</v>
@@ -1797,16 +1797,16 @@
         <v>7871054.848</v>
       </c>
       <c r="K26" t="n">
-        <v>827560</v>
+        <v>8606911.488</v>
       </c>
       <c r="L26" t="n">
-        <v>866518.0159999999</v>
+        <v>9695297.536</v>
       </c>
       <c r="M26" t="n">
-        <v>912816</v>
+        <v>9425941.504000001</v>
       </c>
       <c r="N26" t="n">
-        <v>845630.976</v>
+        <v>10745706.496</v>
       </c>
       <c r="O26" t="n">
         <v>11183051.776</v>
@@ -1849,16 +1849,16 @@
         <v>6943636.992</v>
       </c>
       <c r="K27" t="n">
-        <v>17379</v>
+        <v>7814678.016</v>
       </c>
       <c r="L27" t="n">
-        <v>42053</v>
+        <v>8888539.136</v>
       </c>
       <c r="M27" t="n">
-        <v>119253</v>
+        <v>8649956.352</v>
       </c>
       <c r="N27" t="n">
-        <v>7362</v>
+        <v>9924889.6</v>
       </c>
       <c r="O27" t="n">
         <v>10356675.584</v>
@@ -1953,16 +1953,16 @@
         <v>3348</v>
       </c>
       <c r="K29" t="n">
-        <v>17300</v>
+        <v>2623</v>
       </c>
       <c r="L29" t="n">
-        <v>41987</v>
+        <v>2712</v>
       </c>
       <c r="M29" t="n">
-        <v>119089</v>
+        <v>2740</v>
       </c>
       <c r="N29" t="n">
-        <v>7245</v>
+        <v>4727</v>
       </c>
       <c r="O29" t="n">
         <v>3936</v>
@@ -2005,16 +2005,16 @@
         <v>49731</v>
       </c>
       <c r="K30" t="n">
-        <v>79</v>
+        <v>91720</v>
       </c>
       <c r="L30" t="n">
-        <v>66</v>
+        <v>111652</v>
       </c>
       <c r="M30" t="n">
-        <v>164</v>
+        <v>123217</v>
       </c>
       <c r="N30" t="n">
-        <v>117</v>
+        <v>120825</v>
       </c>
       <c r="O30" t="n">
         <v>100962</v>
@@ -2057,16 +2057,16 @@
         <v>6889096.192</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>7480474.112</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>8254886.912</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>8150203.904</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>9319444.48</v>
       </c>
       <c r="O31" t="n">
         <v>9850935.296</v>
@@ -2213,16 +2213,16 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>229642</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>500476.992</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>344720</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>431670.016</v>
       </c>
       <c r="O34" t="n">
         <v>337848.984</v>
@@ -2265,16 +2265,16 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>17948</v>
+        <v>10219</v>
       </c>
       <c r="L35" t="n">
-        <v>17706</v>
+        <v>18811</v>
       </c>
       <c r="M35" t="n">
-        <v>17578</v>
+        <v>29075</v>
       </c>
       <c r="N35" t="n">
-        <v>17452</v>
+        <v>48224</v>
       </c>
       <c r="O35" t="n">
         <v>18161</v>
@@ -2369,16 +2369,16 @@
         <v>123201</v>
       </c>
       <c r="K37" t="n">
-        <v>792233.024</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>806758.976</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>775985.024</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>820817.024</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -2889,16 +2889,16 @@
         <v>804217.024</v>
       </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>792233.024</v>
       </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>806758.976</v>
       </c>
       <c r="M47" t="n">
-        <v>0</v>
+        <v>775985.024</v>
       </c>
       <c r="N47" t="n">
-        <v>0</v>
+        <v>820817.024</v>
       </c>
       <c r="O47" t="n">
         <v>826376</v>
@@ -2941,16 +2941,16 @@
         <v>674940.032</v>
       </c>
       <c r="K48" t="n">
-        <v>0</v>
+        <v>674940.032</v>
       </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>674940.032</v>
       </c>
       <c r="M48" t="n">
-        <v>0</v>
+        <v>674940.032</v>
       </c>
       <c r="N48" t="n">
-        <v>0</v>
+        <v>674940.032</v>
       </c>
       <c r="O48" t="n">
         <v>674940.032</v>
@@ -2993,16 +2993,16 @@
         <v>-30193</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>-30193</v>
       </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>-30193</v>
       </c>
       <c r="M49" t="n">
-        <v>0</v>
+        <v>-30193</v>
       </c>
       <c r="N49" t="n">
-        <v>0</v>
+        <v>-30193</v>
       </c>
       <c r="O49" t="n">
         <v>-30193</v>
@@ -3097,16 +3097,16 @@
         <v>163828</v>
       </c>
       <c r="K51" t="n">
-        <v>0</v>
+        <v>119729</v>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>119729</v>
       </c>
       <c r="M51" t="n">
-        <v>0</v>
+        <v>50431</v>
       </c>
       <c r="N51" t="n">
-        <v>0</v>
+        <v>180316.992</v>
       </c>
       <c r="O51" t="n">
         <v>136219.008</v>
@@ -3149,13 +3149,13 @@
         <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>0</v>
+        <v>33123</v>
       </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>46628</v>
       </c>
       <c r="M52" t="n">
-        <v>0</v>
+        <v>86778</v>
       </c>
       <c r="N52" t="n">
         <v>0</v>
@@ -3201,16 +3201,16 @@
         <v>-3879</v>
       </c>
       <c r="K53" t="n">
-        <v>0</v>
+        <v>-4824</v>
       </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>-3866</v>
       </c>
       <c r="M53" t="n">
-        <v>0</v>
+        <v>-5222</v>
       </c>
       <c r="N53" t="n">
-        <v>0</v>
+        <v>-3610</v>
       </c>
       <c r="O53" t="n">
         <v>-3441</v>
@@ -3253,16 +3253,16 @@
         <v>-479</v>
       </c>
       <c r="K54" t="n">
-        <v>0</v>
+        <v>-542</v>
       </c>
       <c r="L54" t="n">
-        <v>0</v>
+        <v>-479</v>
       </c>
       <c r="M54" t="n">
-        <v>0</v>
+        <v>-749</v>
       </c>
       <c r="N54" t="n">
-        <v>0</v>
+        <v>-637</v>
       </c>
       <c r="O54" t="n">
         <v>-610</v>
@@ -3390,18 +3390,10 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>8724</v>
-      </c>
-      <c r="L57" t="n">
-        <v>0</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-1079</v>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
     </row>
@@ -3420,18 +3412,10 @@
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>0</v>
-      </c>
-      <c r="L58" t="n">
-        <v>-707</v>
-      </c>
-      <c r="M58" t="n">
-        <v>-371</v>
-      </c>
-      <c r="N58" t="n">
-        <v>728</v>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
     </row>
@@ -3467,16 +3451,16 @@
         <v>-1444848</v>
       </c>
       <c r="K59" t="n">
-        <v>8724</v>
+        <v>47424</v>
       </c>
       <c r="L59" t="n">
-        <v>-707</v>
+        <v>56978</v>
       </c>
       <c r="M59" t="n">
-        <v>-371</v>
+        <v>64862</v>
       </c>
       <c r="N59" t="n">
-        <v>-351</v>
+        <v>77400.992</v>
       </c>
       <c r="O59" t="n">
         <v>79753</v>
@@ -3517,16 +3501,16 @@
         <v>1458292.992</v>
       </c>
       <c r="K60" t="n">
-        <v>27267</v>
+        <v>0</v>
       </c>
       <c r="L60" t="n">
-        <v>39171</v>
+        <v>0</v>
       </c>
       <c r="M60" t="n">
-        <v>40394</v>
+        <v>0</v>
       </c>
       <c r="N60" t="n">
-        <v>43331.008</v>
+        <v>0</v>
       </c>
       <c r="O60" t="n">
         <v>0</v>
@@ -3567,16 +3551,16 @@
         <v>13445</v>
       </c>
       <c r="K61" t="n">
-        <v>35991</v>
+        <v>47424</v>
       </c>
       <c r="L61" t="n">
-        <v>38464</v>
+        <v>56978</v>
       </c>
       <c r="M61" t="n">
-        <v>40023</v>
+        <v>64862</v>
       </c>
       <c r="N61" t="n">
-        <v>42980</v>
+        <v>77400.992</v>
       </c>
       <c r="O61" t="n">
         <v>79753</v>
@@ -3667,16 +3651,16 @@
         <v>-79006.008</v>
       </c>
       <c r="K63" t="n">
-        <v>0</v>
+        <v>-49860</v>
       </c>
       <c r="L63" t="n">
-        <v>0</v>
+        <v>-50221</v>
       </c>
       <c r="M63" t="n">
-        <v>0</v>
+        <v>-52913</v>
       </c>
       <c r="N63" t="n">
-        <v>0</v>
+        <v>-83053.008</v>
       </c>
       <c r="O63" t="n">
         <v>-68463</v>
@@ -3716,10 +3700,18 @@
       <c r="J64" t="n">
         <v>-296</v>
       </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
       <c r="O64" t="n">
         <v>0</v>
       </c>
@@ -3758,10 +3750,18 @@
       <c r="J65" t="n">
         <v>-52851</v>
       </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0</v>
+      </c>
       <c r="O65" t="n">
         <v>0</v>
       </c>
@@ -3800,10 +3800,18 @@
       <c r="J66" t="n">
         <v>5897</v>
       </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>13</v>
+      </c>
+      <c r="L66" t="n">
+        <v>21</v>
+      </c>
+      <c r="M66" t="n">
+        <v>-43</v>
+      </c>
+      <c r="N66" t="n">
+        <v>472</v>
+      </c>
       <c r="O66" t="n">
         <v>-25</v>
       </c>
@@ -3842,10 +3850,18 @@
       <c r="J67" t="n">
         <v>0</v>
       </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0</v>
+      </c>
       <c r="O67" t="n">
         <v>0</v>
       </c>
@@ -3885,16 +3901,16 @@
         <v>162461.984</v>
       </c>
       <c r="K68" t="n">
-        <v>35991</v>
+        <v>54083</v>
       </c>
       <c r="L68" t="n">
-        <v>38464</v>
+        <v>46172</v>
       </c>
       <c r="M68" t="n">
-        <v>40023</v>
+        <v>41983</v>
       </c>
       <c r="N68" t="n">
-        <v>42980</v>
+        <v>46910</v>
       </c>
       <c r="O68" t="n">
         <v>57816</v>
@@ -3934,10 +3950,18 @@
       <c r="J69" t="n">
         <v>3427169.024</v>
       </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1020760</v>
+      </c>
+      <c r="L69" t="n">
+        <v>1276967.04</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1418843.008</v>
+      </c>
+      <c r="N69" t="n">
+        <v>2593467.904</v>
+      </c>
       <c r="O69" t="n">
         <v>1349232</v>
       </c>
@@ -3976,10 +4000,18 @@
       <c r="J70" t="n">
         <v>-3264711.936</v>
       </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>-966676.992</v>
+      </c>
+      <c r="L70" t="n">
+        <v>-1230795.008</v>
+      </c>
+      <c r="M70" t="n">
+        <v>-1376860.032</v>
+      </c>
+      <c r="N70" t="n">
+        <v>-2546557.952</v>
+      </c>
       <c r="O70" t="n">
         <v>-1291416.064</v>
       </c>
@@ -4002,18 +4034,10 @@
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>-2868</v>
-      </c>
-      <c r="L71" t="n">
-        <v>240</v>
-      </c>
-      <c r="M71" t="n">
-        <v>127</v>
-      </c>
-      <c r="N71" t="n">
-        <v>127</v>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr"/>
     </row>
@@ -4093,16 +4117,16 @@
         <v>49651</v>
       </c>
       <c r="K74" t="n">
-        <v>0</v>
+        <v>51660</v>
       </c>
       <c r="L74" t="n">
-        <v>0</v>
+        <v>52950</v>
       </c>
       <c r="M74" t="n">
-        <v>0</v>
+        <v>53889</v>
       </c>
       <c r="N74" t="n">
-        <v>0</v>
+        <v>41729.992</v>
       </c>
       <c r="O74" t="n">
         <v>69081</v>
@@ -4143,16 +4167,16 @@
         <v>16538</v>
       </c>
       <c r="K75" t="n">
-        <v>0</v>
+        <v>-4198</v>
       </c>
       <c r="L75" t="n">
-        <v>0</v>
+        <v>-15534</v>
       </c>
       <c r="M75" t="n">
-        <v>0</v>
+        <v>-37310</v>
       </c>
       <c r="N75" t="n">
-        <v>0</v>
+        <v>4513</v>
       </c>
       <c r="O75" t="n">
         <v>-2349</v>
@@ -4193,16 +4217,16 @@
         <v>-32394</v>
       </c>
       <c r="K76" t="n">
-        <v>0</v>
+        <v>-14339</v>
       </c>
       <c r="L76" t="n">
-        <v>0</v>
+        <v>1288</v>
       </c>
       <c r="M76" t="n">
-        <v>0</v>
+        <v>23571</v>
       </c>
       <c r="N76" t="n">
-        <v>0</v>
+        <v>-3136</v>
       </c>
       <c r="O76" t="n">
         <v>-17271</v>
@@ -4226,18 +4250,10 @@
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>33123</v>
-      </c>
-      <c r="L77" t="n">
-        <v>38704</v>
-      </c>
-      <c r="M77" t="n">
-        <v>40150</v>
-      </c>
-      <c r="N77" t="n">
-        <v>43107</v>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="inlineStr"/>
     </row>
@@ -4294,10 +4310,18 @@
       <c r="J79" t="n">
         <v>0</v>
       </c>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0</v>
+      </c>
       <c r="O79" t="n">
         <v>0</v>
       </c>
@@ -4336,10 +4360,18 @@
       <c r="J80" t="n">
         <v>33789.992</v>
       </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>33123</v>
+      </c>
+      <c r="L80" t="n">
+        <v>38704</v>
+      </c>
+      <c r="M80" t="n">
+        <v>40150</v>
+      </c>
+      <c r="N80" t="n">
+        <v>43107</v>
+      </c>
       <c r="O80" t="n">
         <v>49461</v>
       </c>
